--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6dc25b5c03ac367b/Ambiente de Trabalho/mestrado/AA/MinimunVertexCover/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{30A8D3FE-11DB-40AF-8C3E-76D9EC23325F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{CFB280AF-97E3-40EE-8DC1-F0B08682BB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
     <sheet name="Time Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Number of Operations" sheetId="3" r:id="rId3"/>
+    <sheet name="Number of Operations" sheetId="4" r:id="rId3"/>
+    <sheet name="Minimum Vertex" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="8" uniqueCount="5">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="11" uniqueCount="5">
   <si>
     <t>Number of Vertices</t>
   </si>
@@ -703,6 +704,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time Analysis'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Time Analysis'!$C$2:$C$15</c:f>
@@ -791,6 +843,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time Analysis'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Time Analysis'!$C$16:$C$29</c:f>
@@ -879,6 +982,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time Analysis'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Time Analysis'!$C$30:$C$43</c:f>
@@ -1250,7 +1404,830 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Number of Operations Analysis</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>25% of Edges</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Number of Operations'!$C$2:$C$15,'Number of Operations'!$B$2:$B$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-155E-4CCA-98AB-7CA5C911A6D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>50% of Edges</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Number of Operations'!$B$16:$B$29,'Number of Operations'!$C$16:$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-155E-4CCA-98AB-7CA5C911A6D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>75% of Edges</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Number of Operations'!$B$30:$B$43,'Number of Operations'!$C$30:$C$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-155E-4CCA-98AB-7CA5C911A6D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2077765903"/>
+        <c:axId val="2077769231"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2077765903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077769231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077769231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077765903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1793,6 +2770,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
@@ -1814,6 +3294,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D8FC7E-E226-4852-ABC5-BA164127A78D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60E9525-7FCE-4AE3-BEB4-B8EAE84E1879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,8 +3654,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2164,7 +3685,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>1024</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2175,325 +3696,325 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>2048</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1.8016299999999999E-2</v>
+        <v>1.9003900000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>4096</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.6005500000000001E-2</v>
+        <v>3.40021E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>25</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>8192</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.9003900000000001E-2</v>
+        <v>9.9017099999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>16384</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>3.9326199999999999E-2</v>
+        <v>0.1770506</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>32768</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>5.7325099999999997E-2</v>
+        <v>0.3670757</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>25</v>
       </c>
       <c r="C8">
-        <v>66</v>
+        <v>65536</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>3.40021E-2</v>
+        <v>0.78917789999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>131072</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>6.6001900000000002E-2</v>
+        <v>2.0744660000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>262144</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0.1000226</v>
+        <v>3.3717503999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
       <c r="C11">
-        <v>78</v>
+        <v>524288</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>9.9017099999999997E-2</v>
+        <v>8.6986522999999991</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>1048576</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.17503379999999999</v>
+        <v>18.964445600000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>78</v>
+        <v>2097152</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.25405220000000001</v>
+        <v>46.8996718</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>25</v>
       </c>
       <c r="C14">
-        <v>91</v>
+        <v>4194304</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.1770506</v>
+        <v>88.163309600000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>91</v>
+        <v>8388608</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.31608219999999998</v>
+        <v>202.0589075</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>91</v>
+        <v>1024</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>0.44310470000000002</v>
+        <v>1.8016299999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>105</v>
+        <v>2048</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.3670757</v>
+        <v>3.9326199999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>50</v>
       </c>
       <c r="C18">
-        <v>105</v>
+        <v>4096</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.63814950000000004</v>
+        <v>6.6001900000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C19">
-        <v>105</v>
+        <v>8192</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19">
-        <v>0.96220209999999995</v>
+        <v>0.17503379999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C20">
-        <v>120</v>
+        <v>16384</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>0.78917789999999999</v>
+        <v>0.31608219999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>50</v>
       </c>
       <c r="C21">
-        <v>120</v>
+        <v>32768</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>1.6083622</v>
+        <v>0.63814950000000004</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2501,16 +4022,16 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>120</v>
+        <v>65536</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>2.2675106999999999</v>
+        <v>1.6083622</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2518,339 +4039,339 @@
         <v>17</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>136</v>
+        <v>131072</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>2.0744660000000001</v>
+        <v>3.6942898999999998</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>50</v>
       </c>
       <c r="C24">
-        <v>136</v>
+        <v>262144</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>3.6942898999999998</v>
+        <v>6.5590986999999998</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>136</v>
+        <v>524288</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>5.2782745000000002</v>
+        <v>17.4173136</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>153</v>
+        <v>1048576</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>3.3717503999999998</v>
+        <v>41.3016589</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>50</v>
       </c>
       <c r="C27">
-        <v>153</v>
+        <v>2097152</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>6.5590986999999998</v>
+        <v>91.134213399999993</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C28">
-        <v>153</v>
+        <v>4194304</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>9.6292974999999998</v>
+        <v>176.73772</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C29">
-        <v>171</v>
+        <v>8388608</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>8.6986522999999991</v>
+        <v>331.68058109999998</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C30">
-        <v>171</v>
+        <v>1024</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>17.4173136</v>
+        <v>2.6005500000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>75</v>
       </c>
       <c r="C31">
-        <v>171</v>
+        <v>2048</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>25.7133441</v>
+        <v>5.7325099999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C32">
-        <v>190</v>
+        <v>4096</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>18.964445600000001</v>
+        <v>0.1000226</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C33">
-        <v>190</v>
+        <v>8192</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>41.3016589</v>
+        <v>0.25405220000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>75</v>
       </c>
       <c r="C34">
-        <v>190</v>
+        <v>16384</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34">
-        <v>57.939718200000002</v>
+        <v>0.44310470000000002</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C35">
-        <v>210</v>
+        <v>32768</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>46.8996718</v>
+        <v>0.96220209999999995</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C36">
-        <v>210</v>
+        <v>65536</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>91.134213399999993</v>
+        <v>2.2675106999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>75</v>
       </c>
       <c r="C37">
-        <v>210</v>
+        <v>131072</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37">
-        <v>131.92894100000001</v>
+        <v>5.2782745000000002</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C38">
-        <v>231</v>
+        <v>262144</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>88.163309600000005</v>
+        <v>9.6292974999999998</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C39">
-        <v>231</v>
+        <v>524288</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>176.73772</v>
+        <v>25.7133441</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>75</v>
       </c>
       <c r="C40">
-        <v>231</v>
+        <v>1048576</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>260.13409350000001</v>
+        <v>57.939718200000002</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C41">
-        <v>253</v>
+        <v>2097152</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>202.0589075</v>
+        <v>131.92894100000001</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C42">
-        <v>253</v>
+        <v>4194304</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>331.68058109999998</v>
+        <v>260.13409350000001</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2861,7 +4382,7 @@
         <v>75</v>
       </c>
       <c r="C43">
-        <v>253</v>
+        <v>8388608</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2871,6 +4392,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
+    <sortCondition ref="B1:B43"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2879,8 +4403,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3365,10 +4889,501 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8116978C-2066-42E1-B31F-959600B4EDCF}">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515508B4-69E2-4B12-80E3-C39E1D96974E}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>4194304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>4194304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>75</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>75</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>75</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>75</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>75</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>75</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>75</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>75</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>75</v>
+      </c>
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>2097152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>4194304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>8388608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D1E750-4D86-4CEE-8862-68CC081818DC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
